--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCode\github\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCode\github\inventory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4777F24-7331-4509-953A-B6AA1BC4341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3947D5D9-BBC1-4A21-AC48-A3C31EBF4906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Category</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Report generate on:</t>
+  </si>
+  <si>
+    <t>Report Style:</t>
   </si>
 </sst>
 </file>
@@ -118,13 +121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,12 +199,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -213,11 +213,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="63">
     <dxf>
       <alignment vertical="center" indent="0"/>
     </dxf>
@@ -255,25 +259,112 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39997558519241921"/>
@@ -281,9 +372,120 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
@@ -298,47 +500,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -390,7 +557,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Dipu" refreshedDate="44675.604833680554" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Dipu" refreshedDate="44676.074745254627" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Data"/>
   </cacheSource>
@@ -454,7 +621,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Inv" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" rowGrandTotals="0" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Items">
-  <location ref="A7:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A9:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField name="Category" axis="axisPage" showAll="0">
       <items count="3">
@@ -513,24 +680,24 @@
     <dataField name="Qty at Rig" fld="4" baseField="1" baseItem="0"/>
     <dataField name="Qty on Boat" fld="5" baseField="1" baseItem="0"/>
   </dataFields>
-  <formats count="17">
-    <format dxfId="33">
+  <formats count="19">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="60">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0" selected="0"/>
@@ -538,7 +705,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -548,17 +715,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -568,13 +735,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="52">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0" selected="0"/>
@@ -582,10 +758,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="25">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -595,17 +771,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -883,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -894,52 +1067,68 @@
     <col min="1" max="1" width="58.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36.75" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" hidden="1">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
